--- a/data-raw/dataset_extraction_form.xlsx
+++ b/data-raw/dataset_extraction_form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunet.sharepoint.com/sites/JonahPhDDocuments/Shared Documents/Scoping Review/IJE_paper_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahthomas/R_projects/gpad.cards/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="8_{959CF63D-691D-5D49-84D6-9C0E9D60D3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4454361-95C8-994C-A2D4-1FCF3254EB9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1BDB0E-DD9A-B145-B1C7-CBC02D0524E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{5BAB5DFC-CE5D-6E42-A4C3-D90D5449F9C0}"/>
   </bookViews>
@@ -2562,8 +2562,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BV127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="C17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24020,6 +24020,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="19c54d97-7c34-49a2-a30b-c16445f7a17b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F689B97E61E83439B781AEB7570A0A1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e63598e031c8c924f666e5cbe1aa4b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="19c54d97-7c34-49a2-a30b-c16445f7a17b" xmlns:ns3="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba76a531a1a888fa64be74c7622cdb07" ns2:_="" ns3:_="">
     <xsd:import namespace="19c54d97-7c34-49a2-a30b-c16445f7a17b"/>
@@ -24250,27 +24270,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14677FDD-19BE-416D-B404-BDD41C6725EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="19c54d97-7c34-49a2-a30b-c16445f7a17b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="19c54d97-7c34-49a2-a30b-c16445f7a17b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B90D25-620E-4D96-A051-F79F7073263B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F7FC6E0-1134-41D1-A990-6C158CE9EDD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24287,29 +24312,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B90D25-620E-4D96-A051-F79F7073263B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14677FDD-19BE-416D-B404-BDD41C6725EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="19c54d97-7c34-49a2-a30b-c16445f7a17b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-raw/dataset_extraction_form.xlsx
+++ b/data-raw/dataset_extraction_form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonahthomas/R_projects/gpad.cards/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunet.sharepoint.com/sites/JonahPhDDocuments/Shared Documents/Scoping Review/IJE_paper_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1BDB0E-DD9A-B145-B1C7-CBC02D0524E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="8_{959CF63D-691D-5D49-84D6-9C0E9D60D3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4454361-95C8-994C-A2D4-1FCF3254EB9D}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{5BAB5DFC-CE5D-6E42-A4C3-D90D5449F9C0}"/>
   </bookViews>
@@ -2562,8 +2562,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BV127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="C17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24020,26 +24020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="19c54d97-7c34-49a2-a30b-c16445f7a17b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F689B97E61E83439B781AEB7570A0A1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e63598e031c8c924f666e5cbe1aa4b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="19c54d97-7c34-49a2-a30b-c16445f7a17b" xmlns:ns3="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba76a531a1a888fa64be74c7622cdb07" ns2:_="" ns3:_="">
     <xsd:import namespace="19c54d97-7c34-49a2-a30b-c16445f7a17b"/>
@@ -24270,32 +24250,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14677FDD-19BE-416D-B404-BDD41C6725EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="19c54d97-7c34-49a2-a30b-c16445f7a17b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B90D25-620E-4D96-A051-F79F7073263B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="19c54d97-7c34-49a2-a30b-c16445f7a17b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F7FC6E0-1134-41D1-A990-6C158CE9EDD7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24312,4 +24287,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B90D25-620E-4D96-A051-F79F7073263B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14677FDD-19BE-416D-B404-BDD41C6725EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="19c54d97-7c34-49a2-a30b-c16445f7a17b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d79e6cb5-5a2a-4cd3-8d72-a172e5aab376"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>